--- a/src/main/resources/poi/report_device_accountingReport.xlsx
+++ b/src/main/resources/poi/report_device_accountingReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D248680E-BB6C-4C23-B90E-F0B1F113DB3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748BC59-53F6-4008-81C6-FFAB2E058CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="468" windowWidth="12696" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +266,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,13 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="18" customWidth="1"/>
+    <col min="1" max="9" width="18" customWidth="1"/>
+    <col min="10" max="18" width="18" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -623,31 +631,31 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -679,31 +687,31 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/main/resources/poi/report_device_accountingReport.xlsx
+++ b/src/main/resources/poi/report_device_accountingReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748BC59-53F6-4008-81C6-FFAB2E058CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728346DA-69A4-4A25-B1DC-BC9C8BE0EB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,18 +261,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,23 +585,23 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="18" customWidth="1"/>
-    <col min="10" max="18" width="18" style="5" customWidth="1"/>
+    <col min="10" max="18" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -631,31 +631,31 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -687,31 +687,31 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/main/resources/poi/report_device_accountingReport.xlsx
+++ b/src/main/resources/poi/report_device_accountingReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhl_3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728346DA-69A4-4A25-B1DC-BC9C8BE0EB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03058578-C263-4914-9FAF-0C0C7552B862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,18 +134,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.usingTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.buyTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.totalManHour</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.faultFrequency</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,6 +163,14 @@
   </si>
   <si>
     <t>t.patrolFrequency}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.useTimeHour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.totalOffHour</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +585,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -685,34 +685,34 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
